--- a/Milk account.xlsx
+++ b/Milk account.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>Date</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>Tk.</t>
-  </si>
-  <si>
-    <t>25.4.2021</t>
   </si>
   <si>
     <t>500gm</t>
@@ -67,8 +64,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,43 +396,70 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1">
+        <f ca="1">A6-4</f>
+        <v>44311</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
       <c r="C2">
         <v>45</v>
       </c>
       <c r="D2">
         <f>SUM(C2:C93)</f>
-        <v>135</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1">
+        <f ca="1">A6-3</f>
+        <v>44312</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
       </c>
       <c r="C3">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1">
+        <f ca="1">A6-2</f>
+        <v>44313</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
       <c r="C4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <f ca="1">A6-1</f>
+        <v>44314</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <f ca="1">TODAY()</f>
+        <v>44315</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>45</v>
       </c>
     </row>

--- a/Milk account.xlsx
+++ b/Milk account.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>Date</t>
   </si>
@@ -371,15 +371,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="36.85546875" customWidth="1"/>
@@ -402,7 +402,7 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f ca="1">A6-4</f>
-        <v>44311</v>
+        <v>44312</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -412,13 +412,13 @@
       </c>
       <c r="D2">
         <f>SUM(C2:C93)</f>
-        <v>225</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f ca="1">A6-3</f>
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -430,7 +430,7 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f ca="1">A6-2</f>
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -442,7 +442,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f ca="1">A6-1</f>
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -454,12 +454,24 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f ca="1">TODAY()</f>
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f ca="1">A6+1</f>
+        <v>44317</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>45</v>
       </c>
     </row>

--- a/Milk account.xlsx
+++ b/Milk account.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
   <si>
     <t>Date</t>
   </si>
@@ -371,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,8 +401,8 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <f ca="1">A6-4</f>
-        <v>44312</v>
+        <f>DATE(2021,4,25)</f>
+        <v>44311</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -412,13 +412,13 @@
       </c>
       <c r="D2">
         <f>SUM(C2:C93)</f>
-        <v>270</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <f ca="1">A6-3</f>
-        <v>44313</v>
+        <f>A2+1</f>
+        <v>44312</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -429,8 +429,8 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f ca="1">A6-2</f>
-        <v>44314</v>
+        <f>A3+1</f>
+        <v>44313</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -441,8 +441,8 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f ca="1">A6-1</f>
-        <v>44315</v>
+        <f>A3+2</f>
+        <v>44314</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -453,8 +453,8 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f ca="1">TODAY()</f>
-        <v>44316</v>
+        <f ca="1">A7-1</f>
+        <v>44315</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -465,13 +465,25 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f ca="1">A6+1</f>
+        <f ca="1">A8-1</f>
+        <v>44316</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <f ca="1">TODAY()</f>
         <v>44317</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
         <v>45</v>
       </c>
     </row>

--- a/Milk account.xlsx
+++ b/Milk account.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                          April</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                May </t>
   </si>
 </sst>
 </file>
@@ -371,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -383,9 +389,10 @@
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="36.85546875" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -399,7 +406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f>DATE(2021,4,25)</f>
         <v>44311</v>
@@ -412,12 +419,12 @@
       </c>
       <c r="D2">
         <f>SUM(C2:C93)</f>
-        <v>315</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <f>A2+1</f>
+        <f>DATE(2021,4,26)</f>
         <v>44312</v>
       </c>
       <c r="B3" t="s">
@@ -427,9 +434,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f>A3+1</f>
+        <f>DATE(2021,4,27)</f>
         <v>44313</v>
       </c>
       <c r="B4" t="s">
@@ -438,10 +445,13 @@
       <c r="C4">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f>A3+2</f>
+        <f>DATE(2021,4,28)</f>
         <v>44314</v>
       </c>
       <c r="B5" t="s">
@@ -450,10 +460,14 @@
       <c r="C5">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <f>SUM(D2-D7)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f ca="1">A7-1</f>
+        <f>DATE(2021,4,29)</f>
         <v>44315</v>
       </c>
       <c r="B6" t="s">
@@ -462,10 +476,13 @@
       <c r="C6">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f ca="1">A8-1</f>
+        <f>DATE(2021,4,30)</f>
         <v>44316</v>
       </c>
       <c r="B7" t="s">
@@ -474,16 +491,32 @@
       <c r="C7">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f>SUM(C2:C7)</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
+        <f>DATE(2021,5,1)</f>
+        <v>44317</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <f ca="1">TODAY()</f>
-        <v>44317</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8">
+        <v>44318</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
         <v>45</v>
       </c>
     </row>

--- a/Milk account.xlsx
+++ b/Milk account.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -377,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,7 +419,7 @@
       </c>
       <c r="D2">
         <f>SUM(C2:C93)</f>
-        <v>360</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -462,7 +462,7 @@
       </c>
       <c r="E5">
         <f>SUM(D2-D7)</f>
-        <v>90</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -510,13 +510,25 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <f ca="1">TODAY()</f>
+        <f>DATE(2021,5,2)</f>
         <v>44318</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <f>DATE(2021,5,3)</f>
+        <v>44319</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
         <v>45</v>
       </c>
     </row>

--- a/Milk account.xlsx
+++ b/Milk account.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -377,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,7 +419,7 @@
       </c>
       <c r="D2">
         <f>SUM(C2:C93)</f>
-        <v>405</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -462,7 +462,7 @@
       </c>
       <c r="E5">
         <f>SUM(D2-D7)</f>
-        <v>135</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -532,6 +532,18 @@
         <v>45</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <f>DATE(2021,5,4)</f>
+        <v>44320</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Milk account.xlsx
+++ b/Milk account.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -34,7 +34,7 @@
     <t xml:space="preserve">                                                                          April</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                                May </t>
+    <t xml:space="preserve">                                                                   Due=50</t>
   </si>
 </sst>
 </file>
@@ -377,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,7 +392,7 @@
     <col min="5" max="5" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,7 +406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f>DATE(2021,4,25)</f>
         <v>44311</v>
@@ -415,14 +415,14 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <f>SUM(C2:C93)</f>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>DATE(2021,4,26)</f>
         <v>44312</v>
@@ -431,10 +431,10 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>DATE(2021,4,27)</f>
         <v>44313</v>
@@ -443,13 +443,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>45</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f>DATE(2021,4,28)</f>
         <v>44314</v>
@@ -458,14 +455,10 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>45</v>
-      </c>
-      <c r="E5">
-        <f>SUM(D2-D7)</f>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f>DATE(2021,4,29)</f>
         <v>44315</v>
@@ -474,13 +467,13 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f>DATE(2021,4,30)</f>
         <v>44316</v>
@@ -489,14 +482,13 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>45</v>
-      </c>
-      <c r="D7">
-        <f>SUM(C2:C7)</f>
-        <v>270</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f>DATE(2021,5,1)</f>
         <v>44317</v>
@@ -508,7 +500,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f>DATE(2021,5,2)</f>
         <v>44318</v>
@@ -520,7 +512,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f>DATE(2021,5,3)</f>
         <v>44319</v>
@@ -532,7 +524,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f>DATE(2021,5,4)</f>
         <v>44320</v>
@@ -541,6 +533,18 @@
         <v>3</v>
       </c>
       <c r="C11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <f>DATE(2021,5,5)</f>
+        <v>44321</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
         <v>45</v>
       </c>
     </row>

--- a/Milk account.xlsx
+++ b/Milk account.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -377,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,7 +419,7 @@
       </c>
       <c r="D2">
         <f>SUM(C2:C93)</f>
-        <v>225</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -548,6 +548,18 @@
         <v>45</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <f>DATE(2021,5,6)</f>
+        <v>44322</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Milk account.xlsx
+++ b/Milk account.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">                                                                   Due=50</t>
+  </si>
+  <si>
+    <t>0gm</t>
   </si>
 </sst>
 </file>
@@ -377,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,7 +422,7 @@
       </c>
       <c r="D2">
         <f>SUM(C2:C93)</f>
-        <v>270</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -560,6 +563,54 @@
         <v>45</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <f>DATE(2021,5,7)</f>
+        <v>44323</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <f>DATE(2021,5,8)</f>
+        <v>44324</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <f>DATE(2021,5,9)</f>
+        <v>44325</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f>DATE(2021,5,10)</f>
+        <v>44326</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Milk account.xlsx
+++ b/Milk account.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>0gm</t>
+  </si>
+  <si>
+    <t>500gm After Eid</t>
   </si>
 </sst>
 </file>
@@ -383,7 +386,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,7 +425,7 @@
       </c>
       <c r="D2">
         <f>SUM(C2:C93)</f>
-        <v>360</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -589,14 +592,14 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <f>DATE(2021,5,9)</f>
-        <v>44325</v>
+        <f>DATE(2021,5,26)</f>
+        <v>44342</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">

--- a/Milk account.xlsx
+++ b/Milk account.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t xml:space="preserve">                                                                   Due=50</t>
-  </si>
-  <si>
-    <t>0gm</t>
   </si>
   <si>
     <t>500gm After Eid</t>
@@ -383,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,7 +422,7 @@
       </c>
       <c r="D2">
         <f>SUM(C2:C93)</f>
-        <v>405</v>
+        <v>495</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -596,7 +593,7 @@
         <v>44342</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>45</v>
@@ -604,14 +601,26 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <f>DATE(2021,5,10)</f>
-        <v>44326</v>
+        <f>DATE(2021,5,28)</f>
+        <v>44344</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <f>DATE(2021,5,30)</f>
+        <v>44346</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Milk account.xlsx
+++ b/Milk account.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -31,13 +31,13 @@
     <t>Total</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                                          April</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                   Due=50</t>
-  </si>
-  <si>
     <t>500gm After Eid</t>
+  </si>
+  <si>
+    <t>Due befor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            Total may month With Due</t>
   </si>
 </sst>
 </file>
@@ -380,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,7 +422,7 @@
       </c>
       <c r="D2">
         <f>SUM(C2:C93)</f>
-        <v>495</v>
+        <v>590</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -472,9 +472,6 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -487,9 +484,6 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -593,13 +587,13 @@
         <v>44342</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f>DATE(2021,5,28)</f>
         <v>44344</v>
@@ -611,7 +605,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f>DATE(2021,5,30)</f>
         <v>44346</v>
@@ -620,6 +614,33 @@
         <v>3</v>
       </c>
       <c r="C18">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>50</v>
+      </c>
+      <c r="D19">
+        <f>SUM(C8:C19)</f>
+        <v>545</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <f>DATE(2021,6,3)</f>
+        <v>44350</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20">
         <v>45</v>
       </c>
     </row>

--- a/Milk account.xlsx
+++ b/Milk account.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -380,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,7 +422,7 @@
       </c>
       <c r="D2">
         <f>SUM(C2:C93)</f>
-        <v>590</v>
+        <v>635</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -644,6 +644,18 @@
         <v>45</v>
       </c>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <f>DATE(2021,6,11)</f>
+        <v>44358</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Milk account.xlsx
+++ b/Milk account.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -380,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,7 +422,7 @@
       </c>
       <c r="D2">
         <f>SUM(C2:C93)</f>
-        <v>635</v>
+        <v>680</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -656,6 +656,18 @@
         <v>45</v>
       </c>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <f>DATE(2021,6,13)</f>
+        <v>44360</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Milk account.xlsx
+++ b/Milk account.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -380,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,7 +422,7 @@
       </c>
       <c r="D2">
         <f>SUM(C2:C93)</f>
-        <v>680</v>
+        <v>725</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -668,6 +668,18 @@
         <v>45</v>
       </c>
     </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <f>DATE(2021,6,19)</f>
+        <v>44366</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Milk account.xlsx
+++ b/Milk account.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -38,6 +38,15 @@
   </si>
   <si>
     <t xml:space="preserve">                            Total may month With Due</t>
+  </si>
+  <si>
+    <t>ToTal                            840</t>
+  </si>
+  <si>
+    <t>Paid                              500</t>
+  </si>
+  <si>
+    <t>Due                               340</t>
   </si>
 </sst>
 </file>
@@ -380,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,6 +689,21 @@
         <v>45</v>
       </c>
     </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Milk account.xlsx
+++ b/Milk account.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Due                               340</t>
+  </si>
+  <si>
+    <t>add</t>
   </si>
 </sst>
 </file>
@@ -389,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,7 +434,7 @@
       </c>
       <c r="D2">
         <f>SUM(C2:C93)</f>
-        <v>725</v>
+        <v>770</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -704,6 +707,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Milk account.xlsx
+++ b/Milk account.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>add</t>
+  </si>
+  <si>
+    <t>August 8 3 2021 Rana</t>
   </si>
 </sst>
 </file>
@@ -392,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +437,7 @@
       </c>
       <c r="D2">
         <f>SUM(C2:C93)</f>
-        <v>770</v>
+        <v>815</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -715,6 +718,14 @@
         <v>45</v>
       </c>
     </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Milk account.xlsx
+++ b/Milk account.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -25,21 +25,9 @@
     <t>Tk.</t>
   </si>
   <si>
-    <t>500gm</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>500gm After Eid</t>
-  </si>
-  <si>
-    <t>Due befor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            Total may month With Due</t>
-  </si>
-  <si>
     <t>ToTal                            840</t>
   </si>
   <si>
@@ -53,6 +41,21 @@
   </si>
   <si>
     <t>August 8 3 2021 Rana</t>
+  </si>
+  <si>
+    <t>Due</t>
+  </si>
+  <si>
+    <t>joy</t>
+  </si>
+  <si>
+    <t>Rana</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Supty</t>
   </si>
 </sst>
 </file>
@@ -397,8 +400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,306 +424,130 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1">
+        <f ca="1">TODAY()</f>
+        <v>44414</v>
+      </c>
+      <c r="C6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <f>DATE(2021,4,25)</f>
-        <v>44311</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <f>SUM(C2:C93)</f>
-        <v>815</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <f>DATE(2021,4,26)</f>
-        <v>44312</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <f>DATE(2021,4,27)</f>
-        <v>44313</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <f>DATE(2021,4,28)</f>
-        <v>44314</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <f>DATE(2021,4,29)</f>
-        <v>44315</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <f>DATE(2021,4,30)</f>
-        <v>44316</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <f>DATE(2021,5,1)</f>
-        <v>44317</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <f>DATE(2021,5,2)</f>
-        <v>44318</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <f>DATE(2021,5,3)</f>
-        <v>44319</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <f>DATE(2021,5,4)</f>
-        <v>44320</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <f>DATE(2021,5,5)</f>
-        <v>44321</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <f>DATE(2021,5,6)</f>
-        <v>44322</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <f>DATE(2021,5,7)</f>
-        <v>44323</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <f>DATE(2021,5,8)</f>
-        <v>44324</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <f>DATE(2021,5,26)</f>
-        <v>44342</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
         <v>5</v>
       </c>
-      <c r="C16">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <f>DATE(2021,5,28)</f>
-        <v>44344</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <f>DATE(2021,5,30)</f>
-        <v>44346</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>45</v>
-      </c>
-      <c r="D18" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19">
-        <v>50</v>
-      </c>
-      <c r="D19">
-        <f>SUM(C8:C19)</f>
-        <v>545</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <f>DATE(2021,6,3)</f>
-        <v>44350</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <f>DATE(2021,6,11)</f>
-        <v>44358</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <f>DATE(2021,6,13)</f>
-        <v>44360</v>
-      </c>
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <f>DATE(2021,6,19)</f>
-        <v>44366</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>11</v>
       </c>
       <c r="C27">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C29">
         <v>45</v>

--- a/Milk account.xlsx
+++ b/Milk account.xlsx
@@ -401,7 +401,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,7 +466,7 @@
       </c>
       <c r="B6" s="1">
         <f ca="1">TODAY()</f>
-        <v>44414</v>
+        <v>44433</v>
       </c>
       <c r="C6">
         <v>45</v>
@@ -474,12 +474,21 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
+      <c r="C7">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
+      <c r="C8">
+        <v>45</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
+      <c r="C9">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>

--- a/Milk account.xlsx
+++ b/Milk account.xlsx
@@ -401,7 +401,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,7 +466,7 @@
       </c>
       <c r="B6" s="1">
         <f ca="1">TODAY()</f>
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="C6">
         <v>45</v>
@@ -486,15 +486,30 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
+      <c r="B9" s="1">
+        <v>44433</v>
+      </c>
       <c r="C9">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
+      <c r="B10" s="1">
+        <v>44434</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
+      <c r="B11" s="1">
+        <v>44435</v>
+      </c>
+      <c r="C11">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>

--- a/Milk account.xlsx
+++ b/Milk account.xlsx
@@ -401,7 +401,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,7 +466,7 @@
       </c>
       <c r="B6" s="1">
         <f ca="1">TODAY()</f>
-        <v>44435</v>
+        <v>44436</v>
       </c>
       <c r="C6">
         <v>45</v>
@@ -513,6 +513,12 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
+      <c r="B12" s="1">
+        <v>44436</v>
+      </c>
+      <c r="C12">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>

--- a/Milk account.xlsx
+++ b/Milk account.xlsx
@@ -401,7 +401,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,7 +466,7 @@
       </c>
       <c r="B6" s="1">
         <f ca="1">TODAY()</f>
-        <v>44436</v>
+        <v>44437</v>
       </c>
       <c r="C6">
         <v>45</v>
@@ -522,6 +522,12 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
+      <c r="B13" s="1">
+        <v>44437</v>
+      </c>
+      <c r="C13">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>

--- a/Milk account.xlsx
+++ b/Milk account.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>Rana</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Supty</t>
@@ -401,7 +398,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,17 +453,14 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1">
         <f ca="1">TODAY()</f>
-        <v>44437</v>
+        <v>44444</v>
       </c>
       <c r="C6">
         <v>45</v>
@@ -531,6 +525,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
+      <c r="C14">
+        <f>SUM(C2:C13)</f>
+        <v>670</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>

--- a/Milk account.xlsx
+++ b/Milk account.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Supty</t>
+  </si>
+  <si>
+    <t>9/21/2021     300 paid _ 440 due</t>
   </si>
 </sst>
 </file>
@@ -398,7 +401,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,7 +463,7 @@
       </c>
       <c r="B6" s="1">
         <f ca="1">TODAY()</f>
-        <v>44444</v>
+        <v>44460</v>
       </c>
       <c r="C6">
         <v>45</v>
@@ -537,6 +540,15 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
+      <c r="B16" s="1">
+        <v>44460</v>
+      </c>
+      <c r="C16">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>

--- a/Milk account.xlsx
+++ b/Milk account.xlsx
@@ -401,7 +401,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,7 +463,7 @@
       </c>
       <c r="B6" s="1">
         <f ca="1">TODAY()</f>
-        <v>44460</v>
+        <v>44482</v>
       </c>
       <c r="C6">
         <v>45</v>
@@ -552,9 +552,21 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
+      <c r="B17" s="1">
+        <v>44480</v>
+      </c>
+      <c r="C17">
+        <v>45</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
+      <c r="B18" s="1">
+        <v>44551</v>
+      </c>
+      <c r="C18">
+        <v>45</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>

--- a/Milk account.xlsx
+++ b/Milk account.xlsx
@@ -398,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,7 +463,7 @@
       </c>
       <c r="B6" s="1">
         <f ca="1">TODAY()</f>
-        <v>44482</v>
+        <v>44508</v>
       </c>
       <c r="C6">
         <v>45</v>
@@ -568,8 +568,16 @@
         <v>45</v>
       </c>
     </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
+      <c r="C20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
@@ -608,6 +616,21 @@
         <v>8</v>
       </c>
       <c r="C29">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32">
         <v>45</v>
       </c>
     </row>
